--- a/ms/nature communications ms/Supplementary/Supplementary_model tables_S1-S6.xlsx
+++ b/ms/nature communications ms/Supplementary/Supplementary_model tables_S1-S6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/nature communications ms/Supplementary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_diff_meta/ms/nature communications ms/Supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26792E3-04EA-CB47-9100-875C7D7BB52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C1BBC-7A0D-9D46-B57F-F8C047220478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="560" windowWidth="38200" windowHeight="19700" activeTab="6" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="6" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="7" r:id="rId1"/>
@@ -4174,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF86D62B-22BF-1846-B677-968C777627E8}">
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6622,31 +6622,31 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="22">
         <v>-0.25</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="22">
         <v>-1.92</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="22">
         <v>0.06</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="13">
         <v>78</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="13">
         <v>9</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="13">
         <v>16</v>
       </c>
       <c r="J34" s="18" t="s">
@@ -19048,7 +19048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB83DEB-2B05-CC4F-A7FB-35355B0F8531}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
